--- a/base_insert_data.xlsx
+++ b/base_insert_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljw56\OneDrive\바탕 화면\DB프로젝트\DB_crowd_sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F4B87C-7FD3-47FA-BB98-4F5D35F0C881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A436A79-C706-4B06-8CC9-7E7406B79DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9768" yWindow="2808" windowWidth="17280" windowHeight="8964" xr2:uid="{9BB592E6-DCC6-4B40-90F4-46791FB12E19}"/>
+    <workbookView xWindow="0" yWindow="2808" windowWidth="17280" windowHeight="8964" xr2:uid="{9BB592E6-DCC6-4B40-90F4-46791FB12E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="135">
   <si>
     <t>MainID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01053952657</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01012341234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,94 +466,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rest_Rev_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>식당이름%string%매출%float%손님수%integer%정부지원%boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fpop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lpop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새마을 식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한신포차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubmissionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rest_Rev_W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float_pop_W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍콩반점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생식당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>태스크스키마의 경우 이해를 돕기위해 column이름을 한글로 썼지만 
 한글로 들어가면 안되기 때문에 태스크 스키마는 다음의 영어로 매핑된다
-식당이름 -&gt; Name, 매출 -&gt; Rev, 손님수 -&gt; Pop, 정부지원 -&gt; As
+식당이름 -&gt; Name, 매출 -&gt; Rev, 손님수 -&gt; Pop, 정부지원 -&gt; Pas
 지역 -&gt; Loc, 기온 -&gt; Tem, 유동인구 -&gt; Fpop, 지역인구 -&gt; Lpop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float_pop_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fpop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lpop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새마을 식당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한신포차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubmissionID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rest_Rev_W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float_pop_W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍콩반점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생식당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +970,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -997,43 +997,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,6 +1021,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,6 +1037,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36665A2-8AB0-453F-93F7-26BC6EB21567}">
   <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1399,16 +1387,16 @@
   <sheetData>
     <row r="1" spans="2:14" ht="18" thickBot="1"/>
     <row r="2" spans="2:14">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -1479,7 +1467,7 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>45</v>
@@ -1500,7 +1488,7 @@
         <v>62</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -1510,7 +1498,7 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>46</v>
@@ -1531,7 +1519,7 @@
         <v>63</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1541,7 +1529,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>48</v>
@@ -1562,7 +1550,7 @@
         <v>64</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -1572,7 +1560,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>49</v>
@@ -1593,7 +1581,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1603,7 +1591,7 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>50</v>
@@ -1624,7 +1612,7 @@
         <v>66</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1634,7 +1622,7 @@
     </row>
     <row r="10" spans="2:14" ht="18" thickBot="1">
       <c r="B10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>51</v>
@@ -1654,8 +1642,8 @@
       <c r="H10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="29" t="s">
-        <v>68</v>
+      <c r="I10" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1679,20 +1667,20 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:14">
@@ -1705,23 +1693,23 @@
       <c r="D13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="38"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="2:14">
@@ -1732,25 +1720,25 @@
         <v>20</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+        <v>113</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="33"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="2:14" ht="18" thickBot="1">
@@ -1761,25 +1749,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+        <v>114</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="M15" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="35"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="18" thickBot="1">
@@ -1798,23 +1786,23 @@
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="8" t="s">
@@ -1826,18 +1814,18 @@
       <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="38"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="39"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="44"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="41"/>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="11">
@@ -1847,20 +1835,20 @@
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="37"/>
+        <v>72</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="39"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="44"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="11">
@@ -1870,20 +1858,20 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="37"/>
+        <v>73</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="44"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="11">
@@ -1893,20 +1881,20 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="37"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="39"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" spans="2:14" ht="18" thickBot="1">
       <c r="B22" s="14">
@@ -1916,20 +1904,20 @@
         <v>2</v>
       </c>
       <c r="D22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="2:14" ht="18" thickBot="1">
       <c r="B23" s="7"/>
@@ -1947,21 +1935,21 @@
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29"/>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="8" t="s">
@@ -2012,25 +2000,25 @@
         <v>1</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="12">
         <v>1</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K26" s="12">
         <v>2</v>
@@ -2042,7 +2030,7 @@
         <v>8</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:14">
@@ -2053,25 +2041,25 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="19">
         <v>1</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K27" s="12">
         <v>3</v>
@@ -2083,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:14">
@@ -2094,25 +2082,25 @@
         <v>3</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28" s="19">
         <v>1</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K28" s="12">
         <v>3</v>
@@ -2124,7 +2112,7 @@
         <v>3</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:14">
@@ -2135,25 +2123,25 @@
         <v>4</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" s="19">
         <v>2</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K29" s="12">
         <v>2</v>
@@ -2165,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:14">
@@ -2176,25 +2164,25 @@
         <v>3</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" s="19">
         <v>2</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K30" s="12">
         <v>3</v>
@@ -2204,7 +2192,7 @@
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="18" thickBot="1">
@@ -2215,25 +2203,25 @@
         <v>2</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="15">
         <v>1</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K31" s="15">
         <v>2</v>
@@ -2243,7 +2231,7 @@
       </c>
       <c r="M31" s="15"/>
       <c r="N31" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="18" thickBot="1">
@@ -2262,11 +2250,11 @@
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -2301,13 +2289,13 @@
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -2322,13 +2310,13 @@
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -2343,13 +2331,13 @@
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -2364,92 +2352,92 @@
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="30">
+        <v>75</v>
+      </c>
+      <c r="C38" s="23">
         <v>2</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="2:14">
       <c r="B39" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="30">
+        <v>77</v>
+      </c>
+      <c r="C39" s="23">
         <v>2</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="18" thickBot="1">
-      <c r="B40" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="34">
+      <c r="B40" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="25">
         <v>2</v>
       </c>
-      <c r="D40" s="35" t="s">
-        <v>112</v>
+      <c r="D40" s="26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="18" thickBot="1"/>
     <row r="42" spans="2:14">
-      <c r="B42" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="32"/>
+      <c r="B42" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="47"/>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="K43" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="11">
         <v>1</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>127</v>
+      <c r="C44" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="D44" s="1">
         <v>50.27</v>
@@ -2457,14 +2445,14 @@
       <c r="E44" s="1">
         <v>10</v>
       </c>
-      <c r="F44" s="3" t="b">
+      <c r="F44" s="3">
         <v>1</v>
       </c>
       <c r="G44" s="2">
         <v>4</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I44" s="1">
         <v>18</v>
@@ -2480,8 +2468,8 @@
       <c r="B45" s="14">
         <v>1</v>
       </c>
-      <c r="C45" s="34" t="s">
-        <v>128</v>
+      <c r="C45" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="D45" s="5">
         <v>200</v>
@@ -2489,14 +2477,14 @@
       <c r="E45" s="5">
         <v>10</v>
       </c>
-      <c r="F45" s="6" t="b">
+      <c r="F45" s="6">
         <v>0</v>
       </c>
       <c r="G45" s="4">
         <v>4</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I45" s="5">
         <v>28</v>
@@ -2510,59 +2498,59 @@
     </row>
     <row r="46" spans="2:14" ht="18" thickBot="1"/>
     <row r="47" spans="2:14">
-      <c r="B47" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="32"/>
+      <c r="B47" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="47"/>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="J48" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="K48" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="11">
         <v>6</v>
       </c>
-      <c r="C49" s="30" t="s">
-        <v>134</v>
+      <c r="C49" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="D49" s="1">
         <v>20</v>
@@ -2570,14 +2558,14 @@
       <c r="E49" s="1">
         <v>20</v>
       </c>
-      <c r="F49" s="3" t="b">
+      <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="2">
         <v>5</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I49" s="1">
         <v>30</v>
@@ -2593,8 +2581,8 @@
       <c r="B50" s="14">
         <v>6</v>
       </c>
-      <c r="C50" s="34" t="s">
-        <v>135</v>
+      <c r="C50" s="25" t="s">
+        <v>130</v>
       </c>
       <c r="D50" s="5">
         <v>1.27</v>
@@ -2602,14 +2590,14 @@
       <c r="E50" s="5">
         <v>1</v>
       </c>
-      <c r="F50" s="6" t="b">
+      <c r="F50" s="6">
         <v>0</v>
       </c>
       <c r="G50" s="4">
         <v>5</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I50" s="5">
         <v>30</v>
@@ -2623,13 +2611,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B12:M12"/>
     <mergeCell ref="J17:N22"/>
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="G47:K47"/>
     <mergeCell ref="G42:K42"/>
     <mergeCell ref="B42:F42"/>
-    <mergeCell ref="E14:I14"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="E20:I20"/>
@@ -2644,6 +2630,8 @@
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="E13:I13"/>
     <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="E14:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/base_insert_data.xlsx
+++ b/base_insert_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljw56\OneDrive\바탕 화면\DB프로젝트\DB_crowd_sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A436A79-C706-4B06-8CC9-7E7406B79DF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AA6DB1-B9BE-4981-A092-58266C2CCD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2808" windowWidth="17280" windowHeight="8964" xr2:uid="{9BB592E6-DCC6-4B40-90F4-46791FB12E19}"/>
+    <workbookView xWindow="4404" yWindow="1008" windowWidth="17280" windowHeight="8964" xr2:uid="{9BB592E6-DCC6-4B40-90F4-46791FB12E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -985,33 +985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1046,6 +1019,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36665A2-8AB0-453F-93F7-26BC6EB21567}">
   <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1387,16 +1387,16 @@
   <sheetData>
     <row r="1" spans="2:14" ht="18" thickBot="1"/>
     <row r="2" spans="2:14">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -1667,20 +1667,20 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:14">
@@ -1693,23 +1693,23 @@
       <c r="D13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="31"/>
+      <c r="M13" s="44"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="2:14">
@@ -1722,23 +1722,23 @@
       <c r="D14" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="12" t="s">
         <v>68</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="2:14" ht="18" thickBot="1">
@@ -1751,23 +1751,23 @@
       <c r="D15" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="15" t="s">
         <v>69</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="35"/>
+      <c r="M15" s="40"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="18" thickBot="1">
@@ -1786,23 +1786,23 @@
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="36" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="8" t="s">
@@ -1814,18 +1814,18 @@
       <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="32"/>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="11">
@@ -1837,18 +1837,18 @@
       <c r="D19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="32"/>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="11">
@@ -1860,18 +1860,18 @@
       <c r="D20" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="11">
@@ -1883,18 +1883,18 @@
       <c r="D21" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
     </row>
     <row r="22" spans="2:14" ht="18" thickBot="1">
       <c r="B22" s="14">
@@ -1906,18 +1906,18 @@
       <c r="D22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" spans="2:14" ht="18" thickBot="1">
       <c r="B23" s="7"/>
@@ -1935,21 +1935,21 @@
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="8" t="s">
@@ -2250,11 +2250,11 @@
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -2369,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="18" thickBot="1">
@@ -2385,20 +2385,20 @@
     </row>
     <row r="41" spans="2:14" ht="18" thickBot="1"/>
     <row r="42" spans="2:14">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="45" t="s">
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="47"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="8" t="s">
@@ -2498,20 +2498,20 @@
     </row>
     <row r="46" spans="2:14" ht="18" thickBot="1"/>
     <row r="47" spans="2:14">
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="45" t="s">
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="47"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="8" t="s">
@@ -2611,6 +2611,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="E14:I14"/>
     <mergeCell ref="J17:N22"/>
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="G47:K47"/>
@@ -2624,14 +2632,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B24:N24"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="E14:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/base_insert_data.xlsx
+++ b/base_insert_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljw56\OneDrive\바탕 화면\DB프로젝트\DB_crowd_sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AA6DB1-B9BE-4981-A092-58266C2CCD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B6F32B-6408-4488-BF00-F8B978060AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4404" yWindow="1008" windowWidth="17280" windowHeight="8964" xr2:uid="{9BB592E6-DCC6-4B40-90F4-46791FB12E19}"/>
   </bookViews>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36665A2-8AB0-453F-93F7-26BC6EB21567}">
   <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2334,7 +2334,7 @@
         <v>77</v>
       </c>
       <c r="C37" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>109</v>
@@ -2366,10 +2366,10 @@
         <v>77</v>
       </c>
       <c r="C39" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="18" thickBot="1">

--- a/base_insert_data.xlsx
+++ b/base_insert_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljw56\OneDrive\바탕 화면\DB프로젝트\DB_crowd_sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B6F32B-6408-4488-BF00-F8B978060AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A4F605-B80F-46ED-B234-327133B35ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4404" yWindow="1008" windowWidth="17280" windowHeight="8964" xr2:uid="{9BB592E6-DCC6-4B40-90F4-46791FB12E19}"/>
   </bookViews>
@@ -985,6 +985,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1019,33 +1046,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36665A2-8AB0-453F-93F7-26BC6EB21567}">
   <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1387,16 +1387,16 @@
   <sheetData>
     <row r="1" spans="2:14" ht="18" thickBot="1"/>
     <row r="2" spans="2:14">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -1667,20 +1667,20 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:14">
@@ -1693,23 +1693,23 @@
       <c r="D13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="44"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="2:14">
@@ -1722,23 +1722,23 @@
       <c r="D14" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="12" t="s">
         <v>68</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="M14" s="42"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="2:14" ht="18" thickBot="1">
@@ -1751,23 +1751,23 @@
       <c r="D15" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="15" t="s">
         <v>69</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="40"/>
+      <c r="M15" s="35"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="2:14" ht="18" thickBot="1">
@@ -1786,23 +1786,23 @@
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="27" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="8" t="s">
@@ -1814,18 +1814,18 @@
       <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="32"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="41"/>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="11">
@@ -1837,18 +1837,18 @@
       <c r="D19" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="11">
@@ -1860,18 +1860,18 @@
       <c r="D20" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="11">
@@ -1883,18 +1883,18 @@
       <c r="D21" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" spans="2:14" ht="18" thickBot="1">
       <c r="B22" s="14">
@@ -1906,18 +1906,18 @@
       <c r="D22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="2:14" ht="18" thickBot="1">
       <c r="B23" s="7"/>
@@ -1935,21 +1935,21 @@
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="47"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29"/>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="8" t="s">
@@ -2250,11 +2250,11 @@
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -2385,20 +2385,20 @@
     </row>
     <row r="41" spans="2:14" ht="18" thickBot="1"/>
     <row r="42" spans="2:14">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="36" t="s">
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="38"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="47"/>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="8" t="s">
@@ -2498,20 +2498,20 @@
     </row>
     <row r="46" spans="2:14" ht="18" thickBot="1"/>
     <row r="47" spans="2:14">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="36" t="s">
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="38"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="47"/>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="8" t="s">
@@ -2611,14 +2611,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="E14:I14"/>
     <mergeCell ref="J17:N22"/>
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="G47:K47"/>
@@ -2632,6 +2624,14 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B24:N24"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="E14:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
